--- a/maps/adjusted_region_labels.xlsx
+++ b/maps/adjusted_region_labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenwosu/Dropbox/R/yaounde_serocovpop/maps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenwosu/Dropbox/R/yaounde_serocovpop_pub/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935CE2D-DBFB-F54F-BC9E-B95BE5DAE3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF2AE9D-D593-9844-9264-01F186AA806F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16780" xr2:uid="{7131D6F7-495B-B145-B887-8A6CB8E0877E}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>3.885208</v>
       </c>
       <c r="E3" s="2">
-        <v>11.488569999999999</v>
+        <v>11.486000000000001</v>
       </c>
       <c r="F3" s="2">
         <v>3.8885079999999999</v>
@@ -543,7 +543,7 @@
         <v>11.495939999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>3.8841429999999999</v>
+        <v>3.8834</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>11.509</v>
       </c>
       <c r="F5" s="2">
-        <v>3.89</v>
+        <v>3.8919999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -623,10 +623,10 @@
         <v>3.8718530000000002</v>
       </c>
       <c r="E8" s="2">
-        <v>11.508620000000001</v>
+        <v>11.51</v>
       </c>
       <c r="F8" s="2">
-        <v>3.8719999999999999</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>3.8773960000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>11.515000000000001</v>
+        <v>11.516999999999999</v>
       </c>
       <c r="F9" s="2">
         <v>3.8773960000000001</v>
@@ -663,10 +663,10 @@
         <v>3.8778809999999999</v>
       </c>
       <c r="E10" s="2">
-        <v>11.515000000000001</v>
+        <v>11.509</v>
       </c>
       <c r="F10" s="2">
-        <v>3.8849999999999998</v>
+        <v>3.8864999999999998</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
